--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1783.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1783.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8771892878483556</v>
+        <v>0.7170929312705994</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>1.366512656211853</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.258912563323975</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>2.036332845687866</v>
       </c>
       <c r="E1">
-        <v>-1</v>
+        <v>0.8857404589653015</v>
       </c>
     </row>
   </sheetData>
